--- a/Other Details/LinkedIn URLs.xlsx
+++ b/Other Details/LinkedIn URLs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6dbccfe7773cc77a/Documents/GitHub/John-Uvlov/Other Details/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_AD4DCBB4A06381AAC71CFC4626D0F5A8693EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FF04ABC-B58C-4944-97BB-32CF2E77E29C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="22095" yWindow="5115" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,113 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+  <si>
+    <t>python - Scipy sigmoid curve fitting - Stack Overflow</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>A Gentle Introduction to the Rectified Linear Unit (ReLU) (machinelearningmastery.com)</t>
+  </si>
+  <si>
+    <t>Customer analytics experts - Idiro</t>
+  </si>
+  <si>
+    <t>The Ugly Truth about Data Science Projects - YouTube</t>
+  </si>
+  <si>
+    <t>Investing.com - Stock Market Quotes &amp; Financial News</t>
+  </si>
+  <si>
+    <t>Stylianos</t>
+  </si>
+  <si>
+    <t>DEMO: Using Snowpark As Part Of Your Machine Learning Workflow - YouTube</t>
+  </si>
+  <si>
+    <t>Free cloud software plans | Atlassian</t>
+  </si>
+  <si>
+    <t>About us - Idiro Analytics</t>
+  </si>
+  <si>
+    <t>Darts - Time Series forecasting - Unit8</t>
+  </si>
+  <si>
+    <t>unit8co/darts: A python library for easy manipulation and forecasting of time series. (github.com)</t>
+  </si>
+  <si>
+    <t>Darts: Time Series Made Easy in Python | by Julien Herzen | Unit8 - Big Data &amp; AI | Medium</t>
+  </si>
+  <si>
+    <t>Darts For Time Series Forecasting (Python Library for Forecasting) - YouTube</t>
+  </si>
+  <si>
+    <t>timeanddate.com</t>
+  </si>
+  <si>
+    <t>Logistic Regression Analysis: Introduction, Types and Data Considerations - YouTube</t>
+  </si>
+  <si>
+    <t>Setting an account password policy for IAM users - AWS Identity and Access Management (amazon.com)</t>
+  </si>
+  <si>
+    <t>Quickstart — darts documentation (unit8co.github.io)</t>
+  </si>
+  <si>
+    <t>Giannis</t>
+  </si>
+  <si>
+    <t>Snowpark Developer Guide for Python — Snowflake Documentation</t>
+  </si>
+  <si>
+    <t>Setup Snowpark Python on AWS Cloud9 | by Vikash Kumar | Snowflake | Jul, 2022 | Medium</t>
+  </si>
+  <si>
+    <t>Passpack</t>
+  </si>
+  <si>
+    <t>(10) Post | Feed | LinkedIn</t>
+  </si>
+  <si>
+    <t>Stanford CS229: Machine Learning Course, Lecture 1 - Andrew Ng (Autumn 2018) - YouTube</t>
+  </si>
+  <si>
+    <t>scipy - Fit sigmoid function ("S" shape curve) to data using Python - Stack Overflow</t>
+  </si>
+  <si>
+    <t>How to fit sigmoid to time series data · rTales: DataScience in Short (alvaroaguado3.github.io)</t>
+  </si>
+  <si>
+    <t>Mockaroo - Random Data Generator and API Mocking Tool | JSON / CSV / SQL / Excel</t>
+  </si>
+  <si>
+    <t>Time Series Forecasting Using Past and Future External Data with Darts | Unit8 - Big Data &amp; AI (medium.com)</t>
+  </si>
+  <si>
+    <t>Prophet | Forecasting at scale. (facebook.github.io)</t>
+  </si>
+  <si>
+    <t>N-BEATS — darts documentation (unit8co.github.io)</t>
+  </si>
+  <si>
+    <t>Machine Learning in a Data Warehouse | by Rebecca Vickery | Aug, 2022 | Towards Data Science</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +138,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,17 +169,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -330,13 +608,373 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="96.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4 A22 A30:A1048576 A10 A15:A18">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="John">
+      <formula>NOT(ISERROR(SEARCH("John",A4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"""John"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="John">
+      <formula>NOT(ISERROR(SEARCH("John",A2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"""John"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="John">
+      <formula>NOT(ISERROR(SEARCH("John",A19)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"""John"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A9">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="John">
+      <formula>NOT(ISERROR(SEARCH("John",A5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"""John"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:A14">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="John">
+      <formula>NOT(ISERROR(SEARCH("John",A11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"""John"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:A21">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="John">
+      <formula>NOT(ISERROR(SEARCH("John",A20)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"""John"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A25">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="John">
+      <formula>NOT(ISERROR(SEARCH("John",A23)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"""John"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:A29">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="John">
+      <formula>NOT(ISERROR(SEARCH("John",A27)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"""John"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B27" r:id="rId1" display="https://stackoverflow.com/questions/50786145/scipy-sigmoid-curve-fitting" xr:uid="{1F1DBB46-D3D6-4892-8C5B-92C70A36C9FB}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://idiro.com/" xr:uid="{0417D20A-D708-4906-9CDF-F8ED33FE9835}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://www.youtube.com/watch?v=bC7u-DahDWM&amp;feature=youtu.be" xr:uid="{12D860BE-A927-4C09-A9EE-91366BA03CA0}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://www.investing.com/" xr:uid="{0290F597-6BE8-459A-8A38-8C51CFB12882}"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://www.youtube.com/watch?v=2jM7yz2Abd4&amp;t=523s" xr:uid="{926A25CB-4364-49A9-B4F6-402594C29F08}"/>
+    <hyperlink ref="B6" r:id="rId6" display="https://www.atlassian.com/software/free" xr:uid="{F8CD6597-7D0A-457B-9DD2-A740B6AEA681}"/>
+    <hyperlink ref="B7" r:id="rId7" display="https://idiro.com/about-us-idiro/" xr:uid="{AA86FCAF-CB03-4184-9EF5-C30F1360C284}"/>
+    <hyperlink ref="B8" r:id="rId8" display="https://unit8.com/casestudies/darts-time-series-forecasting/" xr:uid="{A8997967-F945-4B1E-A881-9C8EEA7675E4}"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://github.com/unit8co/darts" xr:uid="{BFC73C0E-4B33-4D59-B87F-633B84D7A1DE}"/>
+    <hyperlink ref="B10" r:id="rId10" display="https://medium.com/unit8-machine-learning-publication/darts-time-series-made-easy-in-python-5ac2947a8878" xr:uid="{3B15B4D3-A68A-4A91-9CA6-4006EDF9AAF7}"/>
+    <hyperlink ref="B11" r:id="rId11" display="https://www.youtube.com/watch?v=mWZfHxQLp_4" xr:uid="{107F18C4-8F15-4329-A517-97D6D66CC3AB}"/>
+    <hyperlink ref="B12" r:id="rId12" display="https://www.timeanddate.com/" xr:uid="{5D4230A9-A5BA-4E66-A6C1-3674FDB93618}"/>
+    <hyperlink ref="B13" r:id="rId13" display="https://www.youtube.com/watch?v=yFKVI7vgPPs&amp;feature=youtu.be" xr:uid="{73E8B5C9-1827-4179-B123-1A851ED07F87}"/>
+    <hyperlink ref="B14" r:id="rId14" location="default-policy-details" display="https://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_passwords_account-policy.html - default-policy-details" xr:uid="{B07D0D33-D612-4239-BF99-E4C590D73B10}"/>
+    <hyperlink ref="B15" r:id="rId15" display="https://unit8co.github.io/darts/quickstart/00-quickstart.html" xr:uid="{6AE0DF5A-CDFE-4B28-BF6B-83F023378BC2}"/>
+    <hyperlink ref="B16" r:id="rId16" display="https://unit8co.github.io/darts/quickstart/00-quickstart.html" xr:uid="{8ED02365-ABF1-4A61-8E0F-F6DC909AF936}"/>
+    <hyperlink ref="B17" r:id="rId17" display="https://docs.snowflake.com/en/developer-guide/snowpark/python/index.html" xr:uid="{FB0B1B68-37ED-4593-9E24-BC6C15376ACC}"/>
+    <hyperlink ref="B18" r:id="rId18" display="https://medium.com/snowflake/setup-snowpark-python-on-aws-cloud9-84c96f98748" xr:uid="{26A9B3C6-2557-45D1-9C19-CC2DACFEAFA2}"/>
+    <hyperlink ref="B19" r:id="rId19" display="https://medium.com/snowflake/setup-snowpark-python-on-aws-cloud9-84c96f98748" xr:uid="{DE12C493-BD4E-4380-8248-ACFE6E735076}"/>
+    <hyperlink ref="B20" r:id="rId20" display="https://www.passpack.com/" xr:uid="{3F83221C-BB94-4BDD-9138-EBD897F4283D}"/>
+    <hyperlink ref="B21" r:id="rId21" display="https://www.linkedin.com/feed/update/urn:li:ugcPost:6962569816226340865/" xr:uid="{F0511042-99BA-4E58-BFD1-D59DB420DF9A}"/>
+    <hyperlink ref="B22" r:id="rId22" display="https://www.youtube.com/watch?v=jGwO_UgTS7I&amp;list=PLoROMvodv4rMiGQp3WXShtMGgzqpfVfbU" xr:uid="{7ACF4FD0-DD9A-4D7E-9813-744FE1A663D8}"/>
+    <hyperlink ref="B23" r:id="rId23" display="https://stackoverflow.com/questions/55725139/fit-sigmoid-function-s-shape-curve-to-data-using-python" xr:uid="{3833B050-3514-40D4-843B-F76FAF1FC4F7}"/>
+    <hyperlink ref="B24" r:id="rId24" display="https://alvaroaguado3.github.io/how-to-fit-sigmoid-to-time-series-data/" xr:uid="{0690AE7A-E349-4E78-9875-FDFBF8403645}"/>
+    <hyperlink ref="B25" r:id="rId25" display="https://machinelearningmastery.com/rectified-linear-activation-function-for-deep-learning-neural-networks/" xr:uid="{24D63F8E-B7DB-43A9-B8DD-74F5A3A61D19}"/>
+    <hyperlink ref="B26" r:id="rId26" display="https://www.mockaroo.com/" xr:uid="{C53D1FCD-3A8A-45D8-99E4-ED0D66FFE749}"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://medium.com/unit8-machine-learning-publication/time-series-forecasting-using-past-and-future-external-data-with-darts-1f0539585993" xr:uid="{523873A4-ED69-47FA-B208-2E66CFB252D5}"/>
+    <hyperlink ref="B29" r:id="rId28" display="https://facebook.github.io/prophet/" xr:uid="{92AD68CB-817D-4762-A961-EB5D7AD1F6CC}"/>
+    <hyperlink ref="B30" r:id="rId29" display="https://unit8co.github.io/darts/generated_api/darts.models.forecasting.nbeats.html?highlight=sigmoid" xr:uid="{95C4FCD9-CC24-41B0-B693-D3A028764124}"/>
+    <hyperlink ref="B31" r:id="rId30" display="https://towardsdatascience.com/machine-learning-in-a-data-warehouse-ab0701bbf631" xr:uid="{5CB74FD2-7EC5-41EE-B4B5-BB0B623418AF}"/>
+    <hyperlink ref="B32" r:id="rId31" display="https://stackoverflow.com/questions/55725139/fit-sigmoid-function-s-shape-curve-to-data-using-python" xr:uid="{B49BAAE8-2F37-49A2-98FC-533D1572A88B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>